--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem4/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem4/42/word_level_predictions_42.xlsx
@@ -1282,104 +1282,104 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" t="n">
         <v>5</v>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>camera</t>
         </is>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" t="n">
         <v>6</v>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -1438,364 +1438,364 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" t="n">
         <v>2</v>
       </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" t="n">
         <v>0</v>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" t="n">
         <v>2</v>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" t="n">
         <v>2</v>
       </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>returning</t>
         </is>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" t="n">
         <v>2</v>
       </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G22" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" t="n">
         <v>2</v>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" t="n">
         <v>3</v>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" t="n">
         <v>2</v>
       </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" t="n">
         <v>4</v>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" t="n">
         <v>2</v>
       </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" t="n">
         <v>5</v>
       </c>
-      <c r="E25" s="2" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G25" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" t="n">
         <v>2</v>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" t="n">
         <v>6</v>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G26" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G27" s="2" t="b">
@@ -1837,11 +1837,11 @@
         </is>
       </c>
       <c r="I27" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K27" s="2" t="b">
@@ -1854,208 +1854,208 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" t="n">
         <v>2</v>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" t="n">
         <v>8</v>
       </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" t="n">
         <v>2</v>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" t="n">
         <v>9</v>
       </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2" t="inlineStr">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" t="n">
         <v>2</v>
       </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" t="n">
         <v>10</v>
       </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2" t="inlineStr">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" t="n">
         <v>2</v>
       </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C31" s="2" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>30m</t>
         </is>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" t="n">
         <v>11</v>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G31" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2" t="inlineStr">
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G63" s="2" t="b">
@@ -3709,11 +3709,11 @@
         </is>
       </c>
       <c r="I63" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K63" s="2" t="b">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G64" s="2" t="b">
@@ -3761,11 +3761,11 @@
         </is>
       </c>
       <c r="I64" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K64" s="2" t="b">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_B</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -7233,81 +7233,81 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>9</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>3</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G131" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I131" t="b">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K131" t="b">
-        <v>1</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B132" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C132" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D132" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E132" s="2" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F132" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G132" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L132" s="2" t="inlineStr">
+      <c r="G132" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7649,7 +7649,7 @@
       </c>
       <c r="F139" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G139" s="2" t="b">
@@ -7673,7 +7673,7 @@
       </c>
       <c r="L139" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8065,7 +8065,7 @@
       </c>
       <c r="F147" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G147" s="2" t="b">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="L147" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -8689,7 +8689,7 @@
       </c>
       <c r="F159" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G159" s="2" t="b">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="L159" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12514,210 +12514,210 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="n">
+      <c r="A233" t="n">
         <v>15</v>
       </c>
-      <c r="B233" s="2" t="inlineStr">
+      <c r="B233" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C233" s="2" t="inlineStr">
+      <c r="C233" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D233" s="2" t="n">
+      <c r="D233" t="n">
         <v>0</v>
       </c>
-      <c r="E233" s="2" t="inlineStr">
+      <c r="E233" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F233" s="2" t="inlineStr">
+      <c r="F233" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G233" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L233" s="2" t="inlineStr">
+      <c r="G233" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I233" t="b">
+        <v>1</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K233" t="b">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
+      <c r="A234" t="n">
         <v>15</v>
       </c>
-      <c r="B234" s="2" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C234" s="2" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D234" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E234" s="2" t="inlineStr">
+      <c r="D234" t="n">
+        <v>1</v>
+      </c>
+      <c r="E234" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F234" s="2" t="inlineStr">
+      <c r="F234" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L234" s="2" t="inlineStr">
+      <c r="G234" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I234" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K234" t="b">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
+      <c r="A235" t="n">
         <v>15</v>
       </c>
-      <c r="B235" s="2" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C235" s="2" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>Attitude</t>
         </is>
       </c>
-      <c r="D235" s="2" t="n">
+      <c r="D235" t="n">
         <v>2</v>
       </c>
-      <c r="E235" s="2" t="inlineStr">
+      <c r="E235" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F235" s="2" t="inlineStr">
+      <c r="F235" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L235" s="2" t="inlineStr">
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="n">
+      <c r="A236" t="n">
         <v>15</v>
       </c>
-      <c r="B236" s="2" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C236" s="2" t="inlineStr">
+      <c r="C236" t="inlineStr">
         <is>
           <t>mode</t>
         </is>
       </c>
-      <c r="D236" s="2" t="n">
+      <c r="D236" t="n">
         <v>3</v>
       </c>
-      <c r="E236" s="2" t="inlineStr">
+      <c r="E236" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F236" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem4/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem4/42/word_level_predictions_42.xlsx
@@ -1282,104 +1282,104 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="A17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="A18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>camera</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="G18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -1438,364 +1438,364 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="G20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="inlineStr">
+      <c r="D21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="G21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>returning</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22" t="inlineStr">
+      <c r="G22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="G23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K24" t="b">
-        <v>1</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="G24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="G25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="G26" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G27" s="2" t="b">
@@ -1837,11 +1837,11 @@
         </is>
       </c>
       <c r="I27" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K27" s="2" t="b">
@@ -1854,208 +1854,208 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K28" t="b">
-        <v>1</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K29" t="b">
-        <v>1</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K30" t="b">
-        <v>1</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>30m</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K31" t="b">
-        <v>1</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="G31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G63" s="2" t="b">
@@ -3709,11 +3709,11 @@
         </is>
       </c>
       <c r="I63" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K63" s="2" t="b">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G64" s="2" t="b">
@@ -3761,11 +3761,11 @@
         </is>
       </c>
       <c r="I64" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K64" s="2" t="b">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_E_as_B</t>
         </is>
       </c>
     </row>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G131" t="b">
@@ -7257,57 +7257,57 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
+      <c r="A132" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B132" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C132" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D132" t="n">
+      <c r="D132" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="E132" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="F132" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G132" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I132" t="b">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K132" t="b">
-        <v>1</v>
-      </c>
-      <c r="L132" t="inlineStr">
+      <c r="G132" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7649,7 +7649,7 @@
       </c>
       <c r="F139" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G139" s="2" t="b">
@@ -7673,7 +7673,7 @@
       </c>
       <c r="L139" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -8065,7 +8065,7 @@
       </c>
       <c r="F147" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G147" s="2" t="b">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="L147" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8689,7 +8689,7 @@
       </c>
       <c r="F159" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G159" s="2" t="b">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="L159" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12514,210 +12514,210 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
+      <c r="A233" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B233" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="C233" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D233" t="n">
+      <c r="D233" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E233" t="inlineStr">
+      <c r="E233" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
+      <c r="F233" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G233" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I233" t="b">
-        <v>1</v>
-      </c>
-      <c r="J233" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K233" t="b">
-        <v>1</v>
-      </c>
-      <c r="L233" t="inlineStr">
+      <c r="G233" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J233" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L233" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="n">
+      <c r="A234" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B234" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
+      <c r="C234" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D234" t="n">
-        <v>1</v>
-      </c>
-      <c r="E234" t="inlineStr">
+      <c r="D234" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E234" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
+      <c r="F234" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G234" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I234" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K234" t="b">
-        <v>1</v>
-      </c>
-      <c r="L234" t="inlineStr">
+      <c r="G234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J234" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L234" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="n">
+      <c r="A235" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B235" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
+      <c r="C235" s="2" t="inlineStr">
         <is>
           <t>Attitude</t>
         </is>
       </c>
-      <c r="D235" t="n">
+      <c r="D235" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E235" t="inlineStr">
+      <c r="E235" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
+      <c r="F235" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
+      <c r="G235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J235" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="n">
+      <c r="A236" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B236" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
+      <c r="C236" s="2" t="inlineStr">
         <is>
           <t>mode</t>
         </is>
       </c>
-      <c r="D236" t="n">
+      <c r="D236" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E236" t="inlineStr">
+      <c r="E236" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
